--- a/(UEL) cube_C3D8T_multiphysics/processing_input_notched_plate/controls.xlsx
+++ b/(UEL) cube_C3D8T_multiphysics/processing_input_notched_plate/controls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="140">
   <si>
     <t>solver_controls_name</t>
   </si>
@@ -942,7 +942,7 @@
     <col min="24" max="24" style="32" width="48.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="73.5">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="73.5">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="100.5">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -1304,7 +1304,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -1533,8 +1533,8 @@
       <c r="R9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>26</v>
+      <c r="S9" s="12">
+        <v>100</v>
       </c>
       <c r="T9" s="11">
         <v>5</v>
